--- a/resource.xlsx
+++ b/resource.xlsx
@@ -2,22 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24225" windowHeight="12420" activeTab="0"/>
+    <workbookView windowWidth="24225" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ItemID</t>
   </si>
@@ -31,7 +30,7 @@
     <t>ItemOnable</t>
   </si>
   <si>
-    <t>ItemEffect</t>
+    <t>ItemPremise</t>
   </si>
   <si>
     <t>Alpha</t>
@@ -75,6 +74,27 @@
   <si>
     <t>hij</t>
   </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>money_obtain</t>
+  </si>
+  <si>
+    <t>total_money</t>
+  </si>
+  <si>
+    <t>energy_cost</t>
+  </si>
+  <si>
+    <t>energy_need</t>
+  </si>
+  <si>
+    <t>relax_obtain</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
 </sst>
 </file>
 
@@ -86,12 +106,47 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,43 +154,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +169,6 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,7 +176,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +184,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +192,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,7 +200,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +208,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +216,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +224,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,14 +232,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,27 +247,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -458,6 +480,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -472,6 +495,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -480,6 +504,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -488,6 +513,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980002641678"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -502,6 +528,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -516,6 +543,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -524,6 +552,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -534,307 +563,133 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
-      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="货币[0]" xfId="20"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="21"/>
-    <cellStyle name="输入" xfId="22"/>
-    <cellStyle name="货币" xfId="23"/>
-    <cellStyle name="千位分隔[0]" xfId="24"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="25"/>
-    <cellStyle name="差" xfId="26"/>
-    <cellStyle name="千位分隔" xfId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="28"/>
-    <cellStyle name="超链接" xfId="29"/>
-    <cellStyle name="百分比" xfId="30"/>
-    <cellStyle name="已访问的超链接" xfId="31"/>
-    <cellStyle name="注释" xfId="32"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="33"/>
-    <cellStyle name="标题 4" xfId="34"/>
-    <cellStyle name="警告文本" xfId="35"/>
-    <cellStyle name="标题" xfId="36"/>
-    <cellStyle name="解释性文本" xfId="37"/>
-    <cellStyle name="标题 1" xfId="38"/>
-    <cellStyle name="标题 2" xfId="39"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="40"/>
-    <cellStyle name="标题 3" xfId="41"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="输出" xfId="43"/>
-    <cellStyle name="计算" xfId="44"/>
-    <cellStyle name="检查单元格" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46"/>
-    <cellStyle name="强调文字颜色 2" xfId="47"/>
-    <cellStyle name="链接单元格" xfId="48"/>
-    <cellStyle name="汇总" xfId="49"/>
-    <cellStyle name="好" xfId="50"/>
-    <cellStyle name="适中" xfId="51"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="52"/>
-    <cellStyle name="强调文字颜色 1" xfId="53"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="55"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="57"/>
-    <cellStyle name="强调文字颜色 3" xfId="58"/>
-    <cellStyle name="强调文字颜色 4" xfId="59"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="60"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="61"/>
-    <cellStyle name="强调文字颜色 5" xfId="62"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="63"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="64"/>
-    <cellStyle name="强调文字颜色 6" xfId="65"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="66"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="67"/>
+  <cellStyles count="55">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="Currency" xfId="12"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="Currency [0]" xfId="28"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
+    <cellStyle name="Normal" xfId="51"/>
+    <cellStyle name="Percent" xfId="52"/>
+    <cellStyle name="Comma [0]" xfId="53"/>
+    <cellStyle name="Comma" xfId="54"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1129,10 +984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1142,7 +998,7 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1172,8 +1028,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1186,8 +1045,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1200,8 +1062,11 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1214,8 +1079,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1228,8 +1096,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1242,8 +1113,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1256,10 +1130,14 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <customProperties>
     <customPr name="rwm" r:id="rId1"/>
   </customProperties>
@@ -1268,16 +1146,2976 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1"/>
+  <sheetPr/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>5+A2*1.5</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>SUM($B$2:B2)</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>3+2*A2/10</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>SUM($D$2:D2)</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>D2*A2/5</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>C2-F2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B34" si="0">5+A3*1.5</f>
+        <v>6.5</v>
+      </c>
+      <c r="C3">
+        <f>SUM($B$2:B3)</f>
+        <v>11.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D34" si="1">3+2*A3/10</f>
+        <v>3.2</v>
+      </c>
+      <c r="E3">
+        <f>SUM($D$2:D3)</f>
+        <v>6.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="2">D3*A3/5</f>
+        <v>0.64</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="3">C3-F3</f>
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>SUM($B$2:B4)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="E4">
+        <f>SUM($D$2:D4)</f>
+        <v>9.6</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="C5">
+        <f>SUM($B$2:B5)</f>
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="E5">
+        <f>SUM($D$2:D5)</f>
+        <v>13.2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>26.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>SUM($B$2:B6)</f>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="E6">
+        <f>SUM($D$2:D6)</f>
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>36.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="C7">
+        <f>SUM($B$2:B7)</f>
+        <v>52.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f>SUM($D$2:D7)</f>
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <f>SUM($B$2:B8)</f>
+        <v>66.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="E8">
+        <f>SUM($D$2:D8)</f>
+        <v>25.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>5.04</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>61.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+      <c r="C9">
+        <f>SUM($B$2:B9)</f>
+        <v>82</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.4</v>
+      </c>
+      <c r="E9">
+        <f>SUM($D$2:D9)</f>
+        <v>29.6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>6.16</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f>SUM($B$2:B10)</f>
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
+      <c r="E10">
+        <f>SUM($D$2:D10)</f>
+        <v>34.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>7.36</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>91.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="C11">
+        <f>SUM($B$2:B11)</f>
+        <v>117.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="E11">
+        <f>SUM($D$2:D11)</f>
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>8.64</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>108.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>SUM($B$2:B12)</f>
+        <v>137.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <f>SUM($D$2:D12)</f>
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="C13">
+        <f>SUM($B$2:B13)</f>
+        <v>159</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="E13">
+        <f>SUM($D$2:D13)</f>
+        <v>49.2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>11.44</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>147.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <f>SUM($B$2:B14)</f>
+        <v>182</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="E14">
+        <f>SUM($D$2:D14)</f>
+        <v>54.6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>12.96</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>169.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="C15">
+        <f>SUM($B$2:B15)</f>
+        <v>206.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="E15">
+        <f>SUM($D$2:D15)</f>
+        <v>60.2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>14.56</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>191.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <f>SUM($B$2:B16)</f>
+        <v>232.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="E16">
+        <f>SUM($D$2:D16)</f>
+        <v>66</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>16.24</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>216.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="C17">
+        <f>SUM($B$2:B17)</f>
+        <v>260</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f>SUM($D$2:D17)</f>
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <f>SUM($B$2:B18)</f>
+        <v>289</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="E18">
+        <f>SUM($D$2:D18)</f>
+        <v>78.2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>19.84</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>269.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="C19">
+        <f>SUM($B$2:B19)</f>
+        <v>319.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="E19">
+        <f>SUM($D$2:D19)</f>
+        <v>84.6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>21.76</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>297.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <f>SUM($B$2:B20)</f>
+        <v>351.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="E20">
+        <f>SUM($D$2:D20)</f>
+        <v>91.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>23.76</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>327.74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>33.5</v>
+      </c>
+      <c r="C21">
+        <f>SUM($B$2:B21)</f>
+        <v>385</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="E21">
+        <f>SUM($D$2:D21)</f>
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>25.84</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>359.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <f>SUM($B$2:B22)</f>
+        <v>420</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <f>SUM($D$2:D22)</f>
+        <v>105</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>36.5</v>
+      </c>
+      <c r="C23">
+        <f>SUM($B$2:B23)</f>
+        <v>456.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="E23">
+        <f>SUM($D$2:D23)</f>
+        <v>112.2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>30.24</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>426.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <f>SUM($B$2:B24)</f>
+        <v>494.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="E24">
+        <f>SUM($D$2:D24)</f>
+        <v>119.6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>32.56</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>461.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="C25">
+        <f>SUM($B$2:B25)</f>
+        <v>534</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="E25">
+        <f>SUM($D$2:D25)</f>
+        <v>127.2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>34.96</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>499.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <f>SUM($B$2:B26)</f>
+        <v>575</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="E26">
+        <f>SUM($D$2:D26)</f>
+        <v>135</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>37.44</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>537.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="C27">
+        <f>SUM($B$2:B27)</f>
+        <v>617.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f>SUM($D$2:D27)</f>
+        <v>143</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>577.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$2:B28)</f>
+        <v>661.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>8.2</v>
+      </c>
+      <c r="E28">
+        <f>SUM($D$2:D28)</f>
+        <v>151.2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>42.64</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>618.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$2:B29)</f>
+        <v>707</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="E29">
+        <f>SUM($D$2:D29)</f>
+        <v>159.6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>45.36</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>661.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$2:B30)</f>
+        <v>754</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+      <c r="E30">
+        <f>SUM($D$2:D30)</f>
+        <v>168.2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>48.16</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>705.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$2:B31)</f>
+        <v>802.5</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>8.8</v>
+      </c>
+      <c r="E31">
+        <f>SUM($D$2:D31)</f>
+        <v>177</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>51.04</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="3"/>
+        <v>751.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <f>SUM($B$2:B32)</f>
+        <v>852.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <f>SUM($D$2:D32)</f>
+        <v>186</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="3"/>
+        <v>798.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>51.5</v>
+      </c>
+      <c r="C33">
+        <f>SUM($B$2:B33)</f>
+        <v>904</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>9.2</v>
+      </c>
+      <c r="E33">
+        <f>SUM($D$2:D33)</f>
+        <v>195.2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>57.04</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>846.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <f>SUM($B$2:B34)</f>
+        <v>957</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+      <c r="E34">
+        <f>SUM($D$2:D34)</f>
+        <v>204.6</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>60.16</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="3"/>
+        <v>896.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B66" si="4">5+A35*1.5</f>
+        <v>54.5</v>
+      </c>
+      <c r="C35">
+        <f>SUM($B$2:B35)</f>
+        <v>1011.5</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D66" si="5">3+2*A35/10</f>
+        <v>9.6</v>
+      </c>
+      <c r="E35">
+        <f>SUM($D$2:D35)</f>
+        <v>214.2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="6">D35*A35/5</f>
+        <v>63.36</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G66" si="7">C35-F35</f>
+        <v>948.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <f>SUM($B$2:B36)</f>
+        <v>1067.5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>9.8</v>
+      </c>
+      <c r="E36">
+        <f>SUM($D$2:D36)</f>
+        <v>224</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>66.64</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>1000.86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="C37">
+        <f>SUM($B$2:B37)</f>
+        <v>1125</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <f>SUM($D$2:D37)</f>
+        <v>234</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <f>SUM($B$2:B38)</f>
+        <v>1184</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>10.2</v>
+      </c>
+      <c r="E38">
+        <f>SUM($D$2:D38)</f>
+        <v>244.2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>73.44</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>1110.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>60.5</v>
+      </c>
+      <c r="C39">
+        <f>SUM($B$2:B39)</f>
+        <v>1244.5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
+      <c r="E39">
+        <f>SUM($D$2:D39)</f>
+        <v>254.6</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
+        <v>76.96</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>1167.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <f>SUM($B$2:B40)</f>
+        <v>1306.5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>10.6</v>
+      </c>
+      <c r="E40">
+        <f>SUM($D$2:D40)</f>
+        <v>265.2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
+        <v>80.56</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>1225.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>63.5</v>
+      </c>
+      <c r="C41">
+        <f>SUM($B$2:B41)</f>
+        <v>1370</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>10.8</v>
+      </c>
+      <c r="E41">
+        <f>SUM($D$2:D41)</f>
+        <v>276</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
+        <v>84.24</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>1285.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <f>SUM($B$2:B42)</f>
+        <v>1435</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <f>SUM($D$2:D42)</f>
+        <v>287</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>66.5</v>
+      </c>
+      <c r="C43">
+        <f>SUM($B$2:B43)</f>
+        <v>1501.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>11.2</v>
+      </c>
+      <c r="E43">
+        <f>SUM($D$2:D43)</f>
+        <v>298.2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>91.84</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>1409.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <f>SUM($B$2:B44)</f>
+        <v>1569.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>11.4</v>
+      </c>
+      <c r="E44">
+        <f>SUM($D$2:D44)</f>
+        <v>309.6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>95.76</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>1473.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>69.5</v>
+      </c>
+      <c r="C45">
+        <f>SUM($B$2:B45)</f>
+        <v>1639</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>11.6</v>
+      </c>
+      <c r="E45">
+        <f>SUM($D$2:D45)</f>
+        <v>321.2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>99.76</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>1539.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <f>SUM($B$2:B46)</f>
+        <v>1710</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>11.8</v>
+      </c>
+      <c r="E46">
+        <f>SUM($D$2:D46)</f>
+        <v>333</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>103.84</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>1606.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>72.5</v>
+      </c>
+      <c r="C47">
+        <f>SUM($B$2:B47)</f>
+        <v>1782.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f>SUM($D$2:D47)</f>
+        <v>345</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>1674.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <f>SUM($B$2:B48)</f>
+        <v>1856.5</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>12.2</v>
+      </c>
+      <c r="E48">
+        <f>SUM($D$2:D48)</f>
+        <v>357.2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>112.24</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>1744.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>75.5</v>
+      </c>
+      <c r="C49">
+        <f>SUM($B$2:B49)</f>
+        <v>1932</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>12.4</v>
+      </c>
+      <c r="E49">
+        <f>SUM($D$2:D49)</f>
+        <v>369.6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
+        <v>116.56</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>1815.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <f>SUM($B$2:B50)</f>
+        <v>2009</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>12.6</v>
+      </c>
+      <c r="E50">
+        <f>SUM($D$2:D50)</f>
+        <v>382.2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
+        <v>120.96</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>1888.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>78.5</v>
+      </c>
+      <c r="C51">
+        <f>SUM($B$2:B51)</f>
+        <v>2087.5</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>12.8</v>
+      </c>
+      <c r="E51">
+        <f>SUM($D$2:D51)</f>
+        <v>395</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="6"/>
+        <v>125.44</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>1962.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <f>SUM($B$2:B52)</f>
+        <v>2167.5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <f>SUM($D$2:D52)</f>
+        <v>408</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>2037.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
+        <v>81.5</v>
+      </c>
+      <c r="C53">
+        <f>SUM($B$2:B53)</f>
+        <v>2249</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>13.2</v>
+      </c>
+      <c r="E53">
+        <f>SUM($D$2:D53)</f>
+        <v>421.2</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="6"/>
+        <v>134.64</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>2114.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <f>SUM($B$2:B54)</f>
+        <v>2332</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>13.4</v>
+      </c>
+      <c r="E54">
+        <f>SUM($D$2:D54)</f>
+        <v>434.6</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="6"/>
+        <v>139.36</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>2192.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
+        <v>84.5</v>
+      </c>
+      <c r="C55">
+        <f>SUM($B$2:B55)</f>
+        <v>2416.5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>13.6</v>
+      </c>
+      <c r="E55">
+        <f>SUM($D$2:D55)</f>
+        <v>448.2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="6"/>
+        <v>144.16</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>2272.34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C56">
+        <f>SUM($B$2:B56)</f>
+        <v>2502.5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>13.8</v>
+      </c>
+      <c r="E56">
+        <f>SUM($D$2:D56)</f>
+        <v>462</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="6"/>
+        <v>149.04</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>2353.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
+        <v>87.5</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$2:B57)</f>
+        <v>2590</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <f>SUM($D$2:D57)</f>
+        <v>476</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$2:B58)</f>
+        <v>2679</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>14.2</v>
+      </c>
+      <c r="E58">
+        <f>SUM($D$2:D58)</f>
+        <v>490.2</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="6"/>
+        <v>159.04</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>2519.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
+        <v>90.5</v>
+      </c>
+      <c r="C59">
+        <f>SUM($B$2:B59)</f>
+        <v>2769.5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>14.4</v>
+      </c>
+      <c r="E59">
+        <f>SUM($D$2:D59)</f>
+        <v>504.6</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>164.16</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>2605.34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C60">
+        <f>SUM($B$2:B60)</f>
+        <v>2861.5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>14.6</v>
+      </c>
+      <c r="E60">
+        <f>SUM($D$2:D60)</f>
+        <v>519.2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="6"/>
+        <v>169.36</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>2692.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
+        <v>93.5</v>
+      </c>
+      <c r="C61">
+        <f>SUM($B$2:B61)</f>
+        <v>2955</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>14.8</v>
+      </c>
+      <c r="E61">
+        <f>SUM($D$2:D61)</f>
+        <v>534</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="6"/>
+        <v>174.64</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="7"/>
+        <v>2780.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="C62">
+        <f>SUM($B$2:B62)</f>
+        <v>3050</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <f>SUM($D$2:D62)</f>
+        <v>549</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="7"/>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
+        <v>96.5</v>
+      </c>
+      <c r="C63">
+        <f>SUM($B$2:B63)</f>
+        <v>3146.5</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>15.2</v>
+      </c>
+      <c r="E63">
+        <f>SUM($D$2:D63)</f>
+        <v>564.2</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="6"/>
+        <v>185.44</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="7"/>
+        <v>2961.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$2:B64)</f>
+        <v>3244.5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>15.4</v>
+      </c>
+      <c r="E64">
+        <f>SUM($D$2:D64)</f>
+        <v>579.6</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="6"/>
+        <v>190.96</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="7"/>
+        <v>3053.54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>99.5</v>
+      </c>
+      <c r="C65">
+        <f>SUM($B$2:B65)</f>
+        <v>3344</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="5"/>
+        <v>15.6</v>
+      </c>
+      <c r="E65">
+        <f>SUM($D$2:D65)</f>
+        <v>595.2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>196.56</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="7"/>
+        <v>3147.44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <f>SUM($B$2:B66)</f>
+        <v>3445</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="5"/>
+        <v>15.8</v>
+      </c>
+      <c r="E66">
+        <f>SUM($D$2:D66)</f>
+        <v>611</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="6"/>
+        <v>202.24</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="7"/>
+        <v>3242.76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B98" si="8">5+A67*1.5</f>
+        <v>102.5</v>
+      </c>
+      <c r="C67">
+        <f>SUM($B$2:B67)</f>
+        <v>3547.5</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D98" si="9">3+2*A67/10</f>
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <f>SUM($D$2:D67)</f>
+        <v>627</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F98" si="10">D67*A67/5</f>
+        <v>208</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G98" si="11">C67-F67</f>
+        <v>3339.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="C68">
+        <f>SUM($B$2:B68)</f>
+        <v>3651.5</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>16.2</v>
+      </c>
+      <c r="E68">
+        <f>SUM($D$2:D68)</f>
+        <v>643.2</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>213.84</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="11"/>
+        <v>3437.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="8"/>
+        <v>105.5</v>
+      </c>
+      <c r="C69">
+        <f>SUM($B$2:B69)</f>
+        <v>3757</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>16.4</v>
+      </c>
+      <c r="E69">
+        <f>SUM($D$2:D69)</f>
+        <v>659.6</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>219.76</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="11"/>
+        <v>3537.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="C70">
+        <f>SUM($B$2:B70)</f>
+        <v>3864</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>16.6</v>
+      </c>
+      <c r="E70">
+        <f>SUM($D$2:D70)</f>
+        <v>676.2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>225.76</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="11"/>
+        <v>3638.24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="8"/>
+        <v>108.5</v>
+      </c>
+      <c r="C71">
+        <f>SUM($B$2:B71)</f>
+        <v>3972.5</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>16.8</v>
+      </c>
+      <c r="E71">
+        <f>SUM($D$2:D71)</f>
+        <v>693</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>231.84</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="11"/>
+        <v>3740.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="C72">
+        <f>SUM($B$2:B72)</f>
+        <v>4082.5</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <f>SUM($D$2:D72)</f>
+        <v>710</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>238</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="11"/>
+        <v>3844.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="8"/>
+        <v>111.5</v>
+      </c>
+      <c r="C73">
+        <f>SUM($B$2:B73)</f>
+        <v>4194</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>17.2</v>
+      </c>
+      <c r="E73">
+        <f>SUM($D$2:D73)</f>
+        <v>727.2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>244.24</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="11"/>
+        <v>3949.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="8"/>
+        <v>113</v>
+      </c>
+      <c r="C74">
+        <f>SUM($B$2:B74)</f>
+        <v>4307</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="9"/>
+        <v>17.4</v>
+      </c>
+      <c r="E74">
+        <f>SUM($D$2:D74)</f>
+        <v>744.6</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>250.56</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>4056.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>114.5</v>
+      </c>
+      <c r="C75">
+        <f>SUM($B$2:B75)</f>
+        <v>4421.5</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="9"/>
+        <v>17.6</v>
+      </c>
+      <c r="E75">
+        <f>SUM($D$2:D75)</f>
+        <v>762.2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>256.96</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="11"/>
+        <v>4164.54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="C76">
+        <f>SUM($B$2:B76)</f>
+        <v>4537.5</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="9"/>
+        <v>17.8</v>
+      </c>
+      <c r="E76">
+        <f>SUM($D$2:D76)</f>
+        <v>780</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>263.44</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>4274.06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>117.5</v>
+      </c>
+      <c r="C77">
+        <f>SUM($B$2:B77)</f>
+        <v>4655</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <f>SUM($D$2:D77)</f>
+        <v>798</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>119</v>
+      </c>
+      <c r="C78">
+        <f>SUM($B$2:B78)</f>
+        <v>4774</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="9"/>
+        <v>18.2</v>
+      </c>
+      <c r="E78">
+        <f>SUM($D$2:D78)</f>
+        <v>816.2</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="10"/>
+        <v>276.64</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>4497.36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>120.5</v>
+      </c>
+      <c r="C79">
+        <f>SUM($B$2:B79)</f>
+        <v>4894.5</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="9"/>
+        <v>18.4</v>
+      </c>
+      <c r="E79">
+        <f>SUM($D$2:D79)</f>
+        <v>834.6</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>283.36</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>4611.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <f>SUM($B$2:B80)</f>
+        <v>5016.5</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="9"/>
+        <v>18.6</v>
+      </c>
+      <c r="E80">
+        <f>SUM($D$2:D80)</f>
+        <v>853.2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="10"/>
+        <v>290.16</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>4726.34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="8"/>
+        <v>123.5</v>
+      </c>
+      <c r="C81">
+        <f>SUM($B$2:B81)</f>
+        <v>5140</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="9"/>
+        <v>18.8</v>
+      </c>
+      <c r="E81">
+        <f>SUM($D$2:D81)</f>
+        <v>872</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="10"/>
+        <v>297.04</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="11"/>
+        <v>4842.96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="C82">
+        <f>SUM($B$2:B82)</f>
+        <v>5265</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <f>SUM($D$2:D82)</f>
+        <v>891</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="10"/>
+        <v>304</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="11"/>
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>126.5</v>
+      </c>
+      <c r="C83">
+        <f>SUM($B$2:B83)</f>
+        <v>5391.5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="9"/>
+        <v>19.2</v>
+      </c>
+      <c r="E83">
+        <f>SUM($D$2:D83)</f>
+        <v>910.2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="10"/>
+        <v>311.04</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="11"/>
+        <v>5080.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="C84">
+        <f>SUM($B$2:B84)</f>
+        <v>5519.5</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="9"/>
+        <v>19.4</v>
+      </c>
+      <c r="E84">
+        <f>SUM($D$2:D84)</f>
+        <v>929.6</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="10"/>
+        <v>318.16</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="11"/>
+        <v>5201.34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>129.5</v>
+      </c>
+      <c r="C85">
+        <f>SUM($B$2:B85)</f>
+        <v>5649</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="9"/>
+        <v>19.6</v>
+      </c>
+      <c r="E85">
+        <f>SUM($D$2:D85)</f>
+        <v>949.2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="10"/>
+        <v>325.36</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="11"/>
+        <v>5323.64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="8"/>
+        <v>131</v>
+      </c>
+      <c r="C86">
+        <f>SUM($B$2:B86)</f>
+        <v>5780</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="9"/>
+        <v>19.8</v>
+      </c>
+      <c r="E86">
+        <f>SUM($D$2:D86)</f>
+        <v>969</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="10"/>
+        <v>332.64</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="11"/>
+        <v>5447.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>132.5</v>
+      </c>
+      <c r="C87">
+        <f>SUM($B$2:B87)</f>
+        <v>5912.5</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <f>SUM($D$2:D87)</f>
+        <v>989</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="11"/>
+        <v>5572.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>134</v>
+      </c>
+      <c r="C88">
+        <f>SUM($B$2:B88)</f>
+        <v>6046.5</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="9"/>
+        <v>20.2</v>
+      </c>
+      <c r="E88">
+        <f>SUM($D$2:D88)</f>
+        <v>1009.2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="10"/>
+        <v>347.44</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="11"/>
+        <v>5699.06</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>135.5</v>
+      </c>
+      <c r="C89">
+        <f>SUM($B$2:B89)</f>
+        <v>6182</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="9"/>
+        <v>20.4</v>
+      </c>
+      <c r="E89">
+        <f>SUM($D$2:D89)</f>
+        <v>1029.6</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="10"/>
+        <v>354.96</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="11"/>
+        <v>5827.04</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="C90">
+        <f>SUM($B$2:B90)</f>
+        <v>6319</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="9"/>
+        <v>20.6</v>
+      </c>
+      <c r="E90">
+        <f>SUM($D$2:D90)</f>
+        <v>1050.2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="10"/>
+        <v>362.56</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="11"/>
+        <v>5956.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="8"/>
+        <v>138.5</v>
+      </c>
+      <c r="C91">
+        <f>SUM($B$2:B91)</f>
+        <v>6457.5</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="9"/>
+        <v>20.8</v>
+      </c>
+      <c r="E91">
+        <f>SUM($D$2:D91)</f>
+        <v>1071</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="10"/>
+        <v>370.24</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="11"/>
+        <v>6087.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="C92">
+        <f>SUM($B$2:B92)</f>
+        <v>6597.5</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E92">
+        <f>SUM($D$2:D92)</f>
+        <v>1092</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="11"/>
+        <v>6219.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
+        <v>141.5</v>
+      </c>
+      <c r="C93">
+        <f>SUM($B$2:B93)</f>
+        <v>6739</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="9"/>
+        <v>21.2</v>
+      </c>
+      <c r="E93">
+        <f>SUM($D$2:D93)</f>
+        <v>1113.2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="10"/>
+        <v>385.84</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="11"/>
+        <v>6353.16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="C94">
+        <f>SUM($B$2:B94)</f>
+        <v>6882</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="9"/>
+        <v>21.4</v>
+      </c>
+      <c r="E94">
+        <f>SUM($D$2:D94)</f>
+        <v>1134.6</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="10"/>
+        <v>393.76</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="11"/>
+        <v>6488.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="8"/>
+        <v>144.5</v>
+      </c>
+      <c r="C95">
+        <f>SUM($B$2:B95)</f>
+        <v>7026.5</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="9"/>
+        <v>21.6</v>
+      </c>
+      <c r="E95">
+        <f>SUM($D$2:D95)</f>
+        <v>1156.2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="10"/>
+        <v>401.76</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="11"/>
+        <v>6624.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="C96">
+        <f>SUM($B$2:B96)</f>
+        <v>7172.5</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="9"/>
+        <v>21.8</v>
+      </c>
+      <c r="E96">
+        <f>SUM($D$2:D96)</f>
+        <v>1178</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="10"/>
+        <v>409.84</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="11"/>
+        <v>6762.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="8"/>
+        <v>147.5</v>
+      </c>
+      <c r="C97">
+        <f>SUM($B$2:B97)</f>
+        <v>7320</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="E97">
+        <f>SUM($D$2:D97)</f>
+        <v>1200</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="10"/>
+        <v>418</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="11"/>
+        <v>6902</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="C98">
+        <f>SUM($B$2:B98)</f>
+        <v>7469</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="9"/>
+        <v>22.2</v>
+      </c>
+      <c r="E98">
+        <f>SUM($D$2:D98)</f>
+        <v>1222.2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="10"/>
+        <v>426.24</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="11"/>
+        <v>7042.76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f>5+A99*1.5</f>
+        <v>150.5</v>
+      </c>
+      <c r="C99">
+        <f>SUM($B$2:B99)</f>
+        <v>7619.5</v>
+      </c>
+      <c r="D99">
+        <f>3+2*A99/10</f>
+        <v>22.4</v>
+      </c>
+      <c r="E99">
+        <f>SUM($D$2:D99)</f>
+        <v>1244.6</v>
+      </c>
+      <c r="F99">
+        <f>D99*A99/5</f>
+        <v>434.56</v>
+      </c>
+      <c r="G99">
+        <f>C99-F99</f>
+        <v>7184.94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f>5+A100*1.5</f>
+        <v>152</v>
+      </c>
+      <c r="C100">
+        <f>SUM($B$2:B100)</f>
+        <v>7771.5</v>
+      </c>
+      <c r="D100">
+        <f>3+2*A100/10</f>
+        <v>22.6</v>
+      </c>
+      <c r="E100">
+        <f>SUM($D$2:D100)</f>
+        <v>1267.2</v>
+      </c>
+      <c r="F100">
+        <f>D100*A100/5</f>
+        <v>442.96</v>
+      </c>
+      <c r="G100">
+        <f>C100-F100</f>
+        <v>7328.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f>5+A101*1.5</f>
+        <v>153.5</v>
+      </c>
+      <c r="C101">
+        <f>SUM($B$2:B101)</f>
+        <v>7925</v>
+      </c>
+      <c r="D101">
+        <f>3+2*A101/10</f>
+        <v>22.8</v>
+      </c>
+      <c r="E101">
+        <f>SUM($D$2:D101)</f>
+        <v>1290</v>
+      </c>
+      <c r="F101">
+        <f>D101*A101/5</f>
+        <v>451.44</v>
+      </c>
+      <c r="G101">
+        <f>C101-F101</f>
+        <v>7473.56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f>5+A102*1.5</f>
+        <v>155</v>
+      </c>
+      <c r="C102">
+        <f>SUM($B$2:B102)</f>
+        <v>8080</v>
+      </c>
+      <c r="D102">
+        <f>3+2*A102/10</f>
+        <v>23</v>
+      </c>
+      <c r="E102">
+        <f>SUM($D$2:D102)</f>
+        <v>1313</v>
+      </c>
+      <c r="F102">
+        <f>D102*A102/5</f>
+        <v>460</v>
+      </c>
+      <c r="G102">
+        <f>C102-F102</f>
+        <v>7620</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <customProperties>
     <customPr name="rwm" r:id="rId1"/>
   </customProperties>
@@ -1286,16 +4124,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <customProperties>
     <customPr name="rwm" r:id="rId1"/>
   </customProperties>
